--- a/Project-Functions_EXTENDED.xlsx
+++ b/Project-Functions_EXTENDED.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="93">
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>1.08 * P3 + P1n + P1s + P1e + P1w - ( P2n + P2s + P2e + P2w )</t>
+    <t xml:space="preserve">P * 1.006 + P1 / 500 + P2 / 500 + P3 / 500 + P4 / 500 - ( P5 / 500 + P6 / 500 + P7 / 500 + P8 / 500 ) </t>
   </si>
   <si>
     <t>nP</t>
@@ -32,154 +32,76 @@
     <t>wP</t>
   </si>
   <si>
-    <t>P1n</t>
-  </si>
-  <si>
-    <t>A + nP + W</t>
-  </si>
-  <si>
-    <t>nP1n</t>
-  </si>
-  <si>
-    <t>sP1n</t>
-  </si>
-  <si>
-    <t>eP1n</t>
-  </si>
-  <si>
-    <t>wP1n</t>
-  </si>
-  <si>
-    <t>P1s</t>
-  </si>
-  <si>
-    <t>A + sP + W</t>
-  </si>
-  <si>
-    <t>nP1s</t>
-  </si>
-  <si>
-    <t>sP1s</t>
-  </si>
-  <si>
-    <t>eP1s</t>
-  </si>
-  <si>
-    <t>wP1s</t>
-  </si>
-  <si>
-    <t>P1e</t>
-  </si>
-  <si>
-    <t>A + eP + W</t>
-  </si>
-  <si>
-    <t>nP1e</t>
-  </si>
-  <si>
-    <t>sP1e</t>
-  </si>
-  <si>
-    <t>eP1e</t>
-  </si>
-  <si>
-    <t>wP1e</t>
-  </si>
-  <si>
-    <t>P1w</t>
-  </si>
-  <si>
-    <t>A + wP + W</t>
-  </si>
-  <si>
-    <t>nP1w</t>
-  </si>
-  <si>
-    <t>sP1w</t>
-  </si>
-  <si>
-    <t>eP1w</t>
-  </si>
-  <si>
-    <t>wP1w</t>
-  </si>
-  <si>
-    <t>P2n</t>
-  </si>
-  <si>
-    <t>nA + P + nW</t>
-  </si>
-  <si>
-    <t>nP2n</t>
-  </si>
-  <si>
-    <t>sP2n</t>
-  </si>
-  <si>
-    <t>eP2n</t>
-  </si>
-  <si>
-    <t>wP2n</t>
-  </si>
-  <si>
-    <t>P2s</t>
-  </si>
-  <si>
-    <t>sA + P + sW</t>
-  </si>
-  <si>
-    <t>nP2s</t>
-  </si>
-  <si>
-    <t>sP2s</t>
-  </si>
-  <si>
-    <t>eP2s</t>
-  </si>
-  <si>
-    <t>wP2s</t>
-  </si>
-  <si>
-    <t>P2e</t>
-  </si>
-  <si>
-    <t>eA + P + eW</t>
-  </si>
-  <si>
-    <t>nP2e</t>
-  </si>
-  <si>
-    <t>sP2e</t>
-  </si>
-  <si>
-    <t>eP2e</t>
-  </si>
-  <si>
-    <t>wP2e</t>
-  </si>
-  <si>
-    <t>P2w</t>
-  </si>
-  <si>
-    <t>wA + P + wA</t>
-  </si>
-  <si>
-    <t>nP2w</t>
-  </si>
-  <si>
-    <t>sP2w</t>
-  </si>
-  <si>
-    <t>eP2w</t>
-  </si>
-  <si>
-    <t>wP2w</t>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>W + nP</t>
+  </si>
+  <si>
+    <t>nP1</t>
+  </si>
+  <si>
+    <t>sP1</t>
+  </si>
+  <si>
+    <t>eP1</t>
+  </si>
+  <si>
+    <t>wP1</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>nT</t>
+  </si>
+  <si>
+    <t>sT</t>
+  </si>
+  <si>
+    <t>eT</t>
+  </si>
+  <si>
+    <t>wT</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>nW</t>
+  </si>
+  <si>
+    <t>sW</t>
+  </si>
+  <si>
+    <t>eW</t>
+  </si>
+  <si>
+    <t>wW</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>W + sP</t>
+  </si>
+  <si>
+    <t>nP2</t>
+  </si>
+  <si>
+    <t>sP2</t>
+  </si>
+  <si>
+    <t>eP2</t>
+  </si>
+  <si>
+    <t>wP2</t>
   </si>
   <si>
     <t>P3</t>
   </si>
   <si>
-    <t>0.5 * R + P</t>
+    <t>W + eP</t>
   </si>
   <si>
     <t>nP3</t>
@@ -194,10 +116,28 @@
     <t>wP3</t>
   </si>
   <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>W + wP</t>
+  </si>
+  <si>
+    <t>nP4</t>
+  </si>
+  <si>
+    <t>sP4</t>
+  </si>
+  <si>
+    <t>eP4</t>
+  </si>
+  <si>
+    <t>wP4</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Y + 0.75 * P + 0.25 * C</t>
+    <t>Y + 0.25 * P + 0.75 * C</t>
   </si>
   <si>
     <t>nF</t>
@@ -233,7 +173,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>At1 + At2 / 8 + At3</t>
+    <t>Y + R</t>
   </si>
   <si>
     <t>nA</t>
@@ -248,64 +188,10 @@
     <t>wA</t>
   </si>
   <si>
-    <t>At1</t>
-  </si>
-  <si>
-    <t>W + 2 * R</t>
-  </si>
-  <si>
-    <t>nAt1</t>
-  </si>
-  <si>
-    <t>sAt1</t>
-  </si>
-  <si>
-    <t>eAt1</t>
-  </si>
-  <si>
-    <t>wAt1</t>
-  </si>
-  <si>
-    <t>At2</t>
-  </si>
-  <si>
-    <t>W + T</t>
-  </si>
-  <si>
-    <t>nAt2</t>
-  </si>
-  <si>
-    <t>sAt2</t>
-  </si>
-  <si>
-    <t>eAt2</t>
-  </si>
-  <si>
-    <t>wAt2</t>
-  </si>
-  <si>
-    <t>At3</t>
-  </si>
-  <si>
-    <t>W + Y</t>
-  </si>
-  <si>
-    <t>nAt3</t>
-  </si>
-  <si>
-    <t>sAt3</t>
-  </si>
-  <si>
-    <t>eAt3</t>
-  </si>
-  <si>
-    <t>wAt3</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>0.1 + ( Tf + Tp ) / 2</t>
+    <t>C / 25</t>
   </si>
   <si>
     <t>nY</t>
@@ -320,72 +206,6 @@
     <t>wY</t>
   </si>
   <si>
-    <t>Tf</t>
-  </si>
-  <si>
-    <t>Tf + 0.1 * 0.04 * P</t>
-  </si>
-  <si>
-    <t>nTf</t>
-  </si>
-  <si>
-    <t>sTf</t>
-  </si>
-  <si>
-    <t>eTf</t>
-  </si>
-  <si>
-    <t>wTf</t>
-  </si>
-  <si>
-    <t>Tp</t>
-  </si>
-  <si>
-    <t>Tp + 0.01 * 0.04 * P</t>
-  </si>
-  <si>
-    <t>nTp</t>
-  </si>
-  <si>
-    <t>sTp</t>
-  </si>
-  <si>
-    <t>eTp</t>
-  </si>
-  <si>
-    <t>wTp</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>nT</t>
-  </si>
-  <si>
-    <t>sT</t>
-  </si>
-  <si>
-    <t>eT</t>
-  </si>
-  <si>
-    <t>wT</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>nW</t>
-  </si>
-  <si>
-    <t>sW</t>
-  </si>
-  <si>
-    <t>eW</t>
-  </si>
-  <si>
-    <t>wW</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -399,6 +219,78 @@
   </si>
   <si>
     <t>wC</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>nW + P</t>
+  </si>
+  <si>
+    <t>nP5</t>
+  </si>
+  <si>
+    <t>sP5</t>
+  </si>
+  <si>
+    <t>eP5</t>
+  </si>
+  <si>
+    <t>wP5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>sW + P</t>
+  </si>
+  <si>
+    <t>nP6</t>
+  </si>
+  <si>
+    <t>sP6</t>
+  </si>
+  <si>
+    <t>eP6</t>
+  </si>
+  <si>
+    <t>wP6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>eW + P</t>
+  </si>
+  <si>
+    <t>nP7</t>
+  </si>
+  <si>
+    <t>sP7</t>
+  </si>
+  <si>
+    <t>eP7</t>
+  </si>
+  <si>
+    <t>wP7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>wW + P</t>
+  </si>
+  <si>
+    <t>nP8</t>
+  </si>
+  <si>
+    <t>sP8</t>
+  </si>
+  <si>
+    <t>eP8</t>
+  </si>
+  <si>
+    <t>wP8</t>
   </si>
 </sst>
 </file>
@@ -489,7 +381,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +389,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +403,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +417,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +431,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +445,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +459,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +473,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +487,13 @@
         <v>10.0</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +501,13 @@
         <v>11.0</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +515,13 @@
         <v>12.0</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +529,13 @@
         <v>13.0</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +543,13 @@
         <v>14.0</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +557,13 @@
         <v>15.0</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +571,13 @@
         <v>16.0</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +585,13 @@
         <v>17.0</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +599,13 @@
         <v>18.0</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +613,13 @@
         <v>19.0</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +627,13 @@
         <v>20.0</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +641,13 @@
         <v>21.0</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +655,13 @@
         <v>22.0</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +669,13 @@
         <v>23.0</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +683,13 @@
         <v>24.0</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +697,13 @@
         <v>25.0</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +711,13 @@
         <v>26.0</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +725,13 @@
         <v>27.0</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +739,13 @@
         <v>28.0</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +753,13 @@
         <v>29.0</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +767,13 @@
         <v>30.0</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +781,13 @@
         <v>31.0</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +795,13 @@
         <v>32.0</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +809,13 @@
         <v>33.0</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +823,13 @@
         <v>34.0</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +837,13 @@
         <v>35.0</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +851,13 @@
         <v>36.0</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +865,13 @@
         <v>37.0</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +879,13 @@
         <v>38.0</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +893,13 @@
         <v>39.0</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +907,13 @@
         <v>40.0</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +921,13 @@
         <v>41.0</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +935,13 @@
         <v>42.0</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +949,13 @@
         <v>43.0</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +963,13 @@
         <v>44.0</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +977,13 @@
         <v>45.0</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +991,13 @@
         <v>46.0</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1005,13 @@
         <v>47.0</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1019,13 @@
         <v>48.0</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1033,13 @@
         <v>49.0</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1047,13 @@
         <v>50.0</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1061,13 @@
         <v>51.0</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1075,13 @@
         <v>52.0</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1089,13 @@
         <v>53.0</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1103,13 @@
         <v>54.0</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1117,13 @@
         <v>55.0</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1131,13 @@
         <v>56.0</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1145,13 @@
         <v>57.0</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1159,13 @@
         <v>58.0</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1173,13 @@
         <v>59.0</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1187,13 @@
         <v>60.0</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1201,13 @@
         <v>61.0</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1215,13 @@
         <v>62.0</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1229,13 @@
         <v>63.0</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E65" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1243,13 @@
         <v>64.0</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1257,13 @@
         <v>65.0</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1271,13 @@
         <v>66.0</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1285,13 @@
         <v>67.0</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1299,13 @@
         <v>68.0</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1313,13 @@
         <v>69.0</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1327,13 @@
         <v>70.0</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1341,13 @@
         <v>71.0</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1355,13 @@
         <v>72.0</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1369,13 @@
         <v>73.0</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1383,13 @@
         <v>74.0</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1397,13 @@
         <v>75.0</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1411,13 @@
         <v>76.0</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1425,13 @@
         <v>77.0</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1439,13 @@
         <v>78.0</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E80" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
@@ -1561,433 +1453,13 @@
         <v>79.0</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>100</v>
-      </c>
-      <c r="D84" t="s">
-        <v>100</v>
-      </c>
-      <c r="E84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="C85" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" t="s">
-        <v>106</v>
-      </c>
-      <c r="E85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>127</v>
-      </c>
-      <c r="D89" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" t="s">
-        <v>29</v>
-      </c>
-      <c r="E94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>41</v>
-      </c>
-      <c r="D96" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>47</v>
-      </c>
-      <c r="D97" t="s">
-        <v>47</v>
-      </c>
-      <c r="E97" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D98" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" t="s">
-        <v>59</v>
-      </c>
-      <c r="E99" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>65</v>
-      </c>
-      <c r="D100" t="s">
-        <v>65</v>
-      </c>
-      <c r="E100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>71</v>
-      </c>
-      <c r="D101" t="s">
-        <v>71</v>
-      </c>
-      <c r="E101" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D102" t="s">
-        <v>77</v>
-      </c>
-      <c r="E102" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="C103" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" t="s">
-        <v>83</v>
-      </c>
-      <c r="E103" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" t="s">
-        <v>89</v>
-      </c>
-      <c r="E104" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>95</v>
-      </c>
-      <c r="D105" t="s">
-        <v>95</v>
-      </c>
-      <c r="E105" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>101</v>
-      </c>
-      <c r="D106" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>107</v>
-      </c>
-      <c r="D107" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="C108" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" t="s">
-        <v>113</v>
-      </c>
-      <c r="E108" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="C109" t="s">
-        <v>118</v>
-      </c>
-      <c r="D109" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>123</v>
-      </c>
-      <c r="D110" t="s">
-        <v>123</v>
-      </c>
-      <c r="E110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="C111" t="s">
-        <v>128</v>
-      </c>
-      <c r="D111" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Project-Functions_EXTENDED.xlsx
+++ b/Project-Functions_EXTENDED.xlsx
@@ -17,7 +17,7 @@
     <t>P</t>
   </si>
   <si>
-    <t xml:space="preserve">P * 1.006 + P1 / 500 + P2 / 500 + P3 / 500 + P4 / 500 - ( P5 / 500 + P6 / 500 + P7 / 500 + P8 / 500 ) </t>
+    <t xml:space="preserve">P * 1.009 + P1 / 500 + P2 / 500 + P3 / 500 + P4 / 500 - ( P5 / 500 + P6 / 500 + P7 / 500 + P8 / 500 ) </t>
   </si>
   <si>
     <t>nP</t>

--- a/Project-Functions_EXTENDED.xlsx
+++ b/Project-Functions_EXTENDED.xlsx
@@ -17,7 +17,7 @@
     <t>P</t>
   </si>
   <si>
-    <t xml:space="preserve">P * 1.009 + P1 / 500 + P2 / 500 + P3 / 500 + P4 / 500 - ( P5 / 500 + P6 / 500 + P7 / 500 + P8 / 500 ) </t>
+    <t xml:space="preserve">P * 1.009 + P1 + P2 + P3 + P4 - ( P5 + P6 + P7 + P8 ) </t>
   </si>
   <si>
     <t>nP</t>
@@ -32,10 +32,40 @@
     <t>wP</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>nT</t>
+  </si>
+  <si>
+    <t>sT</t>
+  </si>
+  <si>
+    <t>eT</t>
+  </si>
+  <si>
+    <t>wT</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>nW</t>
+  </si>
+  <si>
+    <t>sW</t>
+  </si>
+  <si>
+    <t>eW</t>
+  </si>
+  <si>
+    <t>wW</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
-    <t>W + nP</t>
+    <t>W + nP * 0.1</t>
   </si>
   <si>
     <t>nP1</t>
@@ -50,40 +80,10 @@
     <t>wP1</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>nT</t>
-  </si>
-  <si>
-    <t>sT</t>
-  </si>
-  <si>
-    <t>eT</t>
-  </si>
-  <si>
-    <t>wT</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>nW</t>
-  </si>
-  <si>
-    <t>sW</t>
-  </si>
-  <si>
-    <t>eW</t>
-  </si>
-  <si>
-    <t>wW</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>W + sP</t>
+    <t>W + sP * 0.1</t>
   </si>
   <si>
     <t>nP2</t>
@@ -101,7 +101,7 @@
     <t>P3</t>
   </si>
   <si>
-    <t>W + eP</t>
+    <t>W + eP * 0.1</t>
   </si>
   <si>
     <t>nP3</t>
@@ -119,7 +119,7 @@
     <t>P4</t>
   </si>
   <si>
-    <t>W + wP</t>
+    <t>W + wP * 0.1</t>
   </si>
   <si>
     <t>nP4</t>
@@ -224,7 +224,7 @@
     <t>P5</t>
   </si>
   <si>
-    <t>nW + P</t>
+    <t>nW + P * 0.1</t>
   </si>
   <si>
     <t>nP5</t>
@@ -242,7 +242,7 @@
     <t>P6</t>
   </si>
   <si>
-    <t>sW + P</t>
+    <t>sW + P * 0.1</t>
   </si>
   <si>
     <t>nP6</t>
@@ -260,7 +260,7 @@
     <t>P7</t>
   </si>
   <si>
-    <t>eW + P</t>
+    <t>eW + P * 0.1</t>
   </si>
   <si>
     <t>nP7</t>
@@ -278,7 +278,7 @@
     <t>P8</t>
   </si>
   <si>
-    <t>wW + P</t>
+    <t>wW + P * 0.1</t>
   </si>
   <si>
     <t>nP8</t>
@@ -367,7 +367,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -375,13 +375,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -389,10 +389,10 @@
         <v>3.0</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -585,13 +585,13 @@
         <v>17.0</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -599,13 +599,13 @@
         <v>18.0</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -809,13 +809,13 @@
         <v>33.0</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -823,13 +823,13 @@
         <v>34.0</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1033,13 +1033,13 @@
         <v>49.0</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1047,13 +1047,13 @@
         <v>50.0</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1257,13 +1257,13 @@
         <v>65.0</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -1271,13 +1271,13 @@
         <v>66.0</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">

--- a/Project-Functions_EXTENDED.xlsx
+++ b/Project-Functions_EXTENDED.xlsx
@@ -17,7 +17,7 @@
     <t>P</t>
   </si>
   <si>
-    <t xml:space="preserve">P * 1.009 + P1 + P2 + P3 + P4 - ( P5 + P6 + P7 + P8 ) </t>
+    <t xml:space="preserve">P * 1.08 + P1 / 800 + P2 / 800 + P3 / 800 + P4 / 800 - ( P5 / 800 + P6 / 800 + P7 / 800 + P8 / 800 ) </t>
   </si>
   <si>
     <t>nP</t>
@@ -65,7 +65,7 @@
     <t>P1</t>
   </si>
   <si>
-    <t>W + nP * 0.1</t>
+    <t>W + nP * 0.5</t>
   </si>
   <si>
     <t>nP1</t>
@@ -83,7 +83,7 @@
     <t>P2</t>
   </si>
   <si>
-    <t>W + sP * 0.1</t>
+    <t>W + sP * 0.5</t>
   </si>
   <si>
     <t>nP2</t>
@@ -101,7 +101,7 @@
     <t>P3</t>
   </si>
   <si>
-    <t>W + eP * 0.1</t>
+    <t>W + eP * 0.5</t>
   </si>
   <si>
     <t>nP3</t>
@@ -119,7 +119,7 @@
     <t>P4</t>
   </si>
   <si>
-    <t>W + wP * 0.1</t>
+    <t>W + wP * 0.5</t>
   </si>
   <si>
     <t>nP4</t>
@@ -224,7 +224,7 @@
     <t>P5</t>
   </si>
   <si>
-    <t>nW + P * 0.1</t>
+    <t>nW + P * 0.5</t>
   </si>
   <si>
     <t>nP5</t>
@@ -242,7 +242,7 @@
     <t>P6</t>
   </si>
   <si>
-    <t>sW + P * 0.1</t>
+    <t>sW + P * 0.5</t>
   </si>
   <si>
     <t>nP6</t>
@@ -260,7 +260,7 @@
     <t>P7</t>
   </si>
   <si>
-    <t>eW + P * 0.1</t>
+    <t>eW + P * 0.5</t>
   </si>
   <si>
     <t>nP7</t>
@@ -278,7 +278,7 @@
     <t>P8</t>
   </si>
   <si>
-    <t>wW + P * 0.1</t>
+    <t>wW + P * 0.5</t>
   </si>
   <si>
     <t>nP8</t>

--- a/Project-Functions_EXTENDED.xlsx
+++ b/Project-Functions_EXTENDED.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
   <si>
     <t>P</t>
   </si>
   <si>
-    <t xml:space="preserve">P * 1.009 + P1 + P2 + P3 + P4 - ( P5 + P6 + P7 + P8 ) </t>
+    <t>P * 1.08 + P1n * 0.1 + P1s * 0.1 + P1e * 0.1 + P1w * 0.1 - ( P2n * 0.1 + P2s * 0.1 + P2e * 0.1 + P2w * 0.1 )</t>
   </si>
   <si>
     <t>nP</t>
@@ -62,82 +62,25 @@
     <t>wW</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>W + nP * 0.1</t>
-  </si>
-  <si>
-    <t>nP1</t>
-  </si>
-  <si>
-    <t>sP1</t>
-  </si>
-  <si>
-    <t>eP1</t>
-  </si>
-  <si>
-    <t>wP1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>W + sP * 0.1</t>
-  </si>
-  <si>
-    <t>nP2</t>
-  </si>
-  <si>
-    <t>sP2</t>
-  </si>
-  <si>
-    <t>eP2</t>
-  </si>
-  <si>
-    <t>wP2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>W + eP * 0.1</t>
-  </si>
-  <si>
-    <t>nP3</t>
-  </si>
-  <si>
-    <t>sP3</t>
-  </si>
-  <si>
-    <t>eP3</t>
-  </si>
-  <si>
-    <t>wP3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>W + wP * 0.1</t>
-  </si>
-  <si>
-    <t>nP4</t>
-  </si>
-  <si>
-    <t>sP4</t>
-  </si>
-  <si>
-    <t>eP4</t>
-  </si>
-  <si>
-    <t>wP4</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>nC</t>
+  </si>
+  <si>
+    <t>sC</t>
+  </si>
+  <si>
+    <t>eC</t>
+  </si>
+  <si>
+    <t>wC</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Y + 0.25 * P + 0.75 * C</t>
+    <t>P + Y</t>
   </si>
   <si>
     <t>nF</t>
@@ -152,46 +95,154 @@
     <t>wF</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>F - P</t>
-  </si>
-  <si>
-    <t>nR</t>
-  </si>
-  <si>
-    <t>sR</t>
-  </si>
-  <si>
-    <t>eR</t>
-  </si>
-  <si>
-    <t>wR</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Y + R</t>
-  </si>
-  <si>
-    <t>nA</t>
-  </si>
-  <si>
-    <t>sA</t>
-  </si>
-  <si>
-    <t>eA</t>
-  </si>
-  <si>
-    <t>wA</t>
+    <t>P1n</t>
+  </si>
+  <si>
+    <t>W + nP</t>
+  </si>
+  <si>
+    <t>nP1n</t>
+  </si>
+  <si>
+    <t>sP1n</t>
+  </si>
+  <si>
+    <t>eP1n</t>
+  </si>
+  <si>
+    <t>wP1n</t>
+  </si>
+  <si>
+    <t>P1s</t>
+  </si>
+  <si>
+    <t>W + sP</t>
+  </si>
+  <si>
+    <t>nP1s</t>
+  </si>
+  <si>
+    <t>sP1s</t>
+  </si>
+  <si>
+    <t>eP1s</t>
+  </si>
+  <si>
+    <t>wP1s</t>
+  </si>
+  <si>
+    <t>P1e</t>
+  </si>
+  <si>
+    <t>W + eP</t>
+  </si>
+  <si>
+    <t>nP1e</t>
+  </si>
+  <si>
+    <t>sP1e</t>
+  </si>
+  <si>
+    <t>eP1e</t>
+  </si>
+  <si>
+    <t>wP1e</t>
+  </si>
+  <si>
+    <t>P1w</t>
+  </si>
+  <si>
+    <t>W + wP</t>
+  </si>
+  <si>
+    <t>nP1w</t>
+  </si>
+  <si>
+    <t>sP1w</t>
+  </si>
+  <si>
+    <t>eP1w</t>
+  </si>
+  <si>
+    <t>wP1w</t>
+  </si>
+  <si>
+    <t>P2n</t>
+  </si>
+  <si>
+    <t>nW + P</t>
+  </si>
+  <si>
+    <t>nP2n</t>
+  </si>
+  <si>
+    <t>sP2n</t>
+  </si>
+  <si>
+    <t>eP2n</t>
+  </si>
+  <si>
+    <t>wP2n</t>
+  </si>
+  <si>
+    <t>P2s</t>
+  </si>
+  <si>
+    <t>sW + P</t>
+  </si>
+  <si>
+    <t>nP2s</t>
+  </si>
+  <si>
+    <t>sP2s</t>
+  </si>
+  <si>
+    <t>eP2s</t>
+  </si>
+  <si>
+    <t>wP2s</t>
+  </si>
+  <si>
+    <t>P2e</t>
+  </si>
+  <si>
+    <t>eW + P</t>
+  </si>
+  <si>
+    <t>nP2e</t>
+  </si>
+  <si>
+    <t>sP2e</t>
+  </si>
+  <si>
+    <t>eP2e</t>
+  </si>
+  <si>
+    <t>wP2e</t>
+  </si>
+  <si>
+    <t>P2w</t>
+  </si>
+  <si>
+    <t>wW + P</t>
+  </si>
+  <si>
+    <t>nP2w</t>
+  </si>
+  <si>
+    <t>sP2w</t>
+  </si>
+  <si>
+    <t>eP2w</t>
+  </si>
+  <si>
+    <t>wP2w</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>C / 25</t>
+    <t>t1 + t2</t>
   </si>
   <si>
     <t>nY</t>
@@ -206,91 +257,199 @@
     <t>wY</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>nC</t>
-  </si>
-  <si>
-    <t>sC</t>
-  </si>
-  <si>
-    <t>eC</t>
-  </si>
-  <si>
-    <t>wC</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>nW + P * 0.1</t>
-  </si>
-  <si>
-    <t>nP5</t>
-  </si>
-  <si>
-    <t>sP5</t>
-  </si>
-  <si>
-    <t>eP5</t>
-  </si>
-  <si>
-    <t>wP5</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>sW + P * 0.1</t>
-  </si>
-  <si>
-    <t>nP6</t>
-  </si>
-  <si>
-    <t>sP6</t>
-  </si>
-  <si>
-    <t>eP6</t>
-  </si>
-  <si>
-    <t>wP6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>eW + P * 0.1</t>
-  </si>
-  <si>
-    <t>nP7</t>
-  </si>
-  <si>
-    <t>sP7</t>
-  </si>
-  <si>
-    <t>eP7</t>
-  </si>
-  <si>
-    <t>wP7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>wW + P * 0.1</t>
-  </si>
-  <si>
-    <t>nP8</t>
-  </si>
-  <si>
-    <t>sP8</t>
-  </si>
-  <si>
-    <t>eP8</t>
-  </si>
-  <si>
-    <t>wP8</t>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>( t1n + t1s + t1e + t1w ) / 4.0</t>
+  </si>
+  <si>
+    <t>nt1</t>
+  </si>
+  <si>
+    <t>st1</t>
+  </si>
+  <si>
+    <t>et1</t>
+  </si>
+  <si>
+    <t>wt1</t>
+  </si>
+  <si>
+    <t>t1n</t>
+  </si>
+  <si>
+    <t>nt1 + nrand + nW</t>
+  </si>
+  <si>
+    <t>nt1n</t>
+  </si>
+  <si>
+    <t>st1n</t>
+  </si>
+  <si>
+    <t>et1n</t>
+  </si>
+  <si>
+    <t>wt1n</t>
+  </si>
+  <si>
+    <t>t1s</t>
+  </si>
+  <si>
+    <t>st1 + srand + sW</t>
+  </si>
+  <si>
+    <t>nt1s</t>
+  </si>
+  <si>
+    <t>st1s</t>
+  </si>
+  <si>
+    <t>et1s</t>
+  </si>
+  <si>
+    <t>wt1s</t>
+  </si>
+  <si>
+    <t>t1e</t>
+  </si>
+  <si>
+    <t>et1 + erand + eW</t>
+  </si>
+  <si>
+    <t>nt1e</t>
+  </si>
+  <si>
+    <t>st1e</t>
+  </si>
+  <si>
+    <t>et1e</t>
+  </si>
+  <si>
+    <t>wt1e</t>
+  </si>
+  <si>
+    <t>t1w</t>
+  </si>
+  <si>
+    <t>wt1 + wrand + wW</t>
+  </si>
+  <si>
+    <t>nt1w</t>
+  </si>
+  <si>
+    <t>st1w</t>
+  </si>
+  <si>
+    <t>et1w</t>
+  </si>
+  <si>
+    <t>wt1w</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>( t2n + t2s + t2e + t2w ) / 4.0</t>
+  </si>
+  <si>
+    <t>nt2</t>
+  </si>
+  <si>
+    <t>st2</t>
+  </si>
+  <si>
+    <t>et2</t>
+  </si>
+  <si>
+    <t>wt2</t>
+  </si>
+  <si>
+    <t>t2n</t>
+  </si>
+  <si>
+    <t>nt2 + nrand + nW</t>
+  </si>
+  <si>
+    <t>nt2n</t>
+  </si>
+  <si>
+    <t>st2n</t>
+  </si>
+  <si>
+    <t>et2n</t>
+  </si>
+  <si>
+    <t>wt2n</t>
+  </si>
+  <si>
+    <t>t2s</t>
+  </si>
+  <si>
+    <t>st2 + srand + sW</t>
+  </si>
+  <si>
+    <t>nt2s</t>
+  </si>
+  <si>
+    <t>st2s</t>
+  </si>
+  <si>
+    <t>et2s</t>
+  </si>
+  <si>
+    <t>wt2s</t>
+  </si>
+  <si>
+    <t>t2e</t>
+  </si>
+  <si>
+    <t>et2 + erand + eW</t>
+  </si>
+  <si>
+    <t>nt2e</t>
+  </si>
+  <si>
+    <t>st2e</t>
+  </si>
+  <si>
+    <t>et2e</t>
+  </si>
+  <si>
+    <t>wt2e</t>
+  </si>
+  <si>
+    <t>t2w</t>
+  </si>
+  <si>
+    <t>wt2 + wrand + wW</t>
+  </si>
+  <si>
+    <t>nt2w</t>
+  </si>
+  <si>
+    <t>st2w</t>
+  </si>
+  <si>
+    <t>et2w</t>
+  </si>
+  <si>
+    <t>wt2w</t>
+  </si>
+  <si>
+    <t>rand</t>
+  </si>
+  <si>
+    <t>nrand</t>
+  </si>
+  <si>
+    <t>srand</t>
+  </si>
+  <si>
+    <t>erand</t>
+  </si>
+  <si>
+    <t>wrand</t>
   </si>
 </sst>
 </file>
@@ -355,6 +514,12 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -369,6 +534,12 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -383,6 +554,12 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -395,7 +572,13 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -403,13 +586,19 @@
         <v>4.0</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -417,13 +606,19 @@
         <v>5.0</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -431,13 +626,19 @@
         <v>6.0</v>
       </c>
       <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -445,13 +646,19 @@
         <v>7.0</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -459,13 +666,19 @@
         <v>8.0</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -473,13 +686,19 @@
         <v>9.0</v>
       </c>
       <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -487,13 +706,19 @@
         <v>10.0</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -501,13 +726,19 @@
         <v>11.0</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -523,6 +754,12 @@
       <c r="E14" t="s">
         <v>70</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -532,10 +769,16 @@
         <v>75</v>
       </c>
       <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
-        <v>76</v>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -546,10 +789,16 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" t="s">
-        <v>82</v>
+      <c r="F16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -565,19 +814,31 @@
       <c r="E17" t="s">
         <v>88</v>
       </c>
+      <c r="F17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>16.0</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -585,13 +846,19 @@
         <v>17.0</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -599,13 +866,19 @@
         <v>18.0</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>106</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -613,13 +886,19 @@
         <v>19.0</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>111</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -627,13 +906,19 @@
         <v>20.0</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>118</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -641,13 +926,19 @@
         <v>21.0</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>124</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -655,13 +946,19 @@
         <v>22.0</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>130</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -669,13 +966,19 @@
         <v>23.0</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>136</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -683,13 +986,19 @@
         <v>24.0</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>141</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -697,13 +1006,19 @@
         <v>25.0</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -711,13 +1026,19 @@
         <v>26.0</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -725,13 +1046,19 @@
         <v>27.0</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -739,13 +1066,19 @@
         <v>28.0</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>17</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -753,13 +1086,19 @@
         <v>29.0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -767,13 +1106,19 @@
         <v>30.0</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>29</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -781,13 +1126,19 @@
         <v>31.0</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>35</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -795,13 +1146,19 @@
         <v>32.0</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -809,13 +1166,19 @@
         <v>33.0</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -823,13 +1186,19 @@
         <v>34.0</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -837,13 +1206,19 @@
         <v>35.0</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -851,13 +1226,19 @@
         <v>36.0</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -865,13 +1246,19 @@
         <v>37.0</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -879,13 +1266,19 @@
         <v>38.0</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>77</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -893,13 +1286,19 @@
         <v>39.0</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -907,13 +1306,19 @@
         <v>40.0</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>89</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -921,13 +1326,19 @@
         <v>41.0</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>95</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -935,13 +1346,19 @@
         <v>42.0</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>101</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -949,13 +1366,19 @@
         <v>43.0</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>107</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -963,13 +1386,19 @@
         <v>44.0</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -977,13 +1406,19 @@
         <v>45.0</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -991,13 +1426,19 @@
         <v>46.0</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1005,13 +1446,19 @@
         <v>47.0</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -1019,13 +1466,19 @@
         <v>48.0</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>137</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -1033,13 +1486,19 @@
         <v>49.0</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>142</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -1047,13 +1506,19 @@
         <v>50.0</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -1061,13 +1526,19 @@
         <v>51.0</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1075,13 +1546,19 @@
         <v>52.0</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1089,13 +1566,19 @@
         <v>53.0</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -1103,13 +1586,19 @@
         <v>54.0</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -1117,13 +1606,19 @@
         <v>55.0</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -1131,13 +1626,19 @@
         <v>56.0</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -1145,13 +1646,19 @@
         <v>57.0</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -1159,13 +1666,19 @@
         <v>58.0</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -1173,13 +1686,19 @@
         <v>59.0</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -1187,13 +1706,19 @@
         <v>60.0</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -1201,13 +1726,19 @@
         <v>61.0</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -1215,13 +1746,19 @@
         <v>62.0</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -1229,13 +1766,19 @@
         <v>63.0</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -1243,13 +1786,19 @@
         <v>64.0</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -1257,13 +1806,19 @@
         <v>65.0</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -1271,13 +1826,19 @@
         <v>66.0</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -1285,13 +1846,19 @@
         <v>67.0</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>102</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -1299,13 +1866,19 @@
         <v>68.0</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>108</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -1313,13 +1886,19 @@
         <v>69.0</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>114</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -1327,13 +1906,19 @@
         <v>70.0</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>120</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -1341,13 +1926,19 @@
         <v>71.0</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>126</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -1355,13 +1946,19 @@
         <v>72.0</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="D74" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="E74" t="s">
-        <v>51</v>
+        <v>132</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -1369,13 +1966,19 @@
         <v>73.0</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>138</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -1383,13 +1986,19 @@
         <v>74.0</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E76" t="s">
-        <v>63</v>
+        <v>143</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -1397,13 +2006,19 @@
         <v>75.0</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -1411,13 +2026,19 @@
         <v>76.0</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -1425,13 +2046,19 @@
         <v>77.0</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -1439,13 +2066,19 @@
         <v>78.0</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -1453,13 +2086,919 @@
         <v>79.0</v>
       </c>
       <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" t="s">
+        <v>103</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" t="s">
+        <v>115</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" t="s">
+        <v>133</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" t="s">
+        <v>139</v>
+      </c>
+      <c r="E100" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" t="s">
+        <v>144</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" t="s">
+        <v>50</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>68</v>
+      </c>
+      <c r="E113" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>74</v>
+      </c>
+      <c r="D114" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>80</v>
+      </c>
+      <c r="D115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" t="s">
+        <v>80</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" t="s">
+        <v>86</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="C117" t="s">
         <v>92</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D117" t="s">
         <v>92</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E117" t="s">
         <v>92</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>98</v>
+      </c>
+      <c r="D118" t="s">
+        <v>98</v>
+      </c>
+      <c r="E118" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" t="s">
+        <v>104</v>
+      </c>
+      <c r="E119" t="s">
+        <v>104</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>110</v>
+      </c>
+      <c r="D120" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" t="s">
+        <v>110</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
+      <c r="D121" t="s">
+        <v>116</v>
+      </c>
+      <c r="E121" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>122</v>
+      </c>
+      <c r="D122" t="s">
+        <v>122</v>
+      </c>
+      <c r="E122" t="s">
+        <v>122</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" t="s">
+        <v>128</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" t="s">
+        <v>134</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" t="s">
+        <v>140</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>145</v>
+      </c>
+      <c r="D126" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" t="s">
+        <v>145</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
